--- a/interface/pn1/data/data1.xlsx
+++ b/interface/pn1/data/data1.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +58,21 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_002</t>
+  </si>
+  <si>
+    <t>pay_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,14 +486,34 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/interface/pn1/data/data1.xlsx
+++ b/interface/pn1/data/data1.xlsx
@@ -4,75 +4,78 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17415" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Except</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lagou.com/jobs/positionAjaxjson?needAddtionalResult=false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_002</t>
+  </si>
+  <si>
+    <t>pay_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Except</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_001</t>
+    <t>login_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.lagou.com/jobs/positionAjaxjson?needAddtionalResult=false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_002</t>
-  </si>
-  <si>
-    <t>pay_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +439,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -450,61 +453,61 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
